--- a/Documentation/QA_Doc.xlsx
+++ b/Documentation/QA_Doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tareas\Especialidad\jdd\AutoTesterAndroid\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF31100F-2738-4F68-986C-79F829D37303}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4820511-E1E7-4F09-AE2B-0B806CD94824}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="429" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1041,30 +1041,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1119,33 +1095,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1210,12 +1159,67 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1231,10 +1235,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2371,19 +2371,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -2409,19 +2403,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -2454,9 +2442,7 @@
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2555,9 +2541,7 @@
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2777,7 +2761,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Cases'!$Q$10</c15:sqref>
@@ -2812,7 +2796,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Cases'!$P$11:$P$17</c15:sqref>
@@ -2848,7 +2832,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Test Cases'!$Q$11:$Q$17</c15:sqref>
@@ -2883,7 +2867,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-DA57-445E-8D1B-4D4C20C275E1}"/>
                   </c:ext>
@@ -2906,11 +2890,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2924,8 +2908,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2954,9 +2939,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2982,8 +2967,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3023,8 +3009,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3048,28 +3035,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -3132,33 +3108,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3166,44 +3144,37 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3222,6 +3193,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3310,18 +3289,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3331,20 +3313,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3358,14 +3340,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3379,8 +3361,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3392,7 +3375,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -3405,9 +3388,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3422,13 +3405,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3440,14 +3424,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3459,13 +3443,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3474,8 +3459,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3485,7 +3471,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -3493,7 +3479,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3501,16 +3487,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3523,14 +3510,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3542,19 +3529,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3563,7 +3543,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -3578,8 +3558,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3589,7 +3570,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3597,9 +3578,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3610,8 +3591,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3621,7 +3603,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -3902,8 +3884,8 @@
   </sheetPr>
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="I17" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3913,7 +3895,7 @@
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="71" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="57" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
     <col min="8" max="8" width="48.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.140625" customWidth="1"/>
@@ -3924,25 +3906,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
@@ -3960,7 +3942,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="93"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="4"/>
@@ -3983,28 +3965,28 @@
       <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="95" t="s">
+      <c r="H3" s="72" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="4"/>
@@ -4035,13 +4017,13 @@
       <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="66"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="10"/>
       <c r="I4" s="4"/>
       <c r="J4" s="11" t="s">
@@ -4080,22 +4062,22 @@
       <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="52" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="23" t="s">
@@ -4134,8 +4116,8 @@
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="18"/>
       <c r="I6" s="4"/>
       <c r="J6" s="16" t="s">
@@ -4167,17 +4149,17 @@
     <row r="7" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="60"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="94"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="71"/>
       <c r="M7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="76">
+      <c r="N7" s="62">
         <f>SUM(L4:L6)</f>
         <v>32</v>
       </c>
@@ -4201,19 +4183,19 @@
       <c r="B8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="55" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="10"/>
@@ -4239,7 +4221,7 @@
       <c r="D9" s="17"/>
       <c r="E9" s="26"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="89"/>
+      <c r="G9" s="66"/>
       <c r="H9" s="18"/>
       <c r="I9" s="4"/>
       <c r="M9" s="4"/>
@@ -4262,20 +4244,20 @@
       <c r="A10" s="20"/>
       <c r="C10" s="14"/>
       <c r="E10" s="38"/>
-      <c r="F10" s="68"/>
+      <c r="F10" s="54"/>
       <c r="H10" s="10"/>
       <c r="I10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="P10" s="100" t="s">
+      <c r="P10" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="Q10" s="101" t="s">
+      <c r="Q10" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="R10" s="102" t="s">
+      <c r="R10" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="S10" s="103" t="s">
+      <c r="S10" s="80" t="s">
         <v>113</v>
       </c>
       <c r="T10" s="4"/>
@@ -4291,37 +4273,37 @@
       <c r="A11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="52" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="P11" s="104">
+      <c r="P11" s="81">
         <v>1</v>
       </c>
-      <c r="Q11" s="105">
+      <c r="Q11" s="82">
         <v>32</v>
       </c>
-      <c r="R11" s="105">
+      <c r="R11" s="82">
         <v>320</v>
       </c>
-      <c r="S11" s="106">
+      <c r="S11" s="83">
         <v>900</v>
       </c>
       <c r="T11" s="4"/>
@@ -4337,26 +4319,26 @@
       <c r="A12" s="22"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="90"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="18"/>
       <c r="I12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="P12" s="104">
+      <c r="P12" s="81">
         <f>P11*2</f>
         <v>2</v>
       </c>
-      <c r="Q12" s="105">
+      <c r="Q12" s="82">
         <f t="shared" ref="Q12:S12" si="0">Q11*2</f>
         <v>64</v>
       </c>
-      <c r="R12" s="105">
+      <c r="R12" s="82">
         <f t="shared" si="0"/>
         <v>640</v>
       </c>
-      <c r="S12" s="106">
+      <c r="S12" s="83">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
@@ -4372,29 +4354,29 @@
     <row r="13" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="72"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="58"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="P13" s="104">
+      <c r="P13" s="81">
         <f t="shared" ref="P13:P17" si="1">P12*2</f>
         <v>4</v>
       </c>
-      <c r="Q13" s="105">
+      <c r="Q13" s="82">
         <f t="shared" ref="Q13:Q17" si="2">Q12*2</f>
         <v>128</v>
       </c>
-      <c r="R13" s="105">
+      <c r="R13" s="82">
         <f t="shared" ref="R13:R17" si="3">R12*2</f>
         <v>1280</v>
       </c>
-      <c r="S13" s="106">
+      <c r="S13" s="83">
         <f t="shared" ref="S13:S17" si="4">S12*2</f>
         <v>3600</v>
       </c>
@@ -4414,19 +4396,19 @@
       <c r="B14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="52" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="23"/>
@@ -4435,19 +4417,19 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="P14" s="104">
+      <c r="P14" s="81">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="Q14" s="105">
+      <c r="Q14" s="82">
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="R14" s="105">
+      <c r="R14" s="82">
         <f t="shared" si="3"/>
         <v>2560</v>
       </c>
-      <c r="S14" s="106">
+      <c r="S14" s="83">
         <f t="shared" si="4"/>
         <v>7200</v>
       </c>
@@ -4466,8 +4448,8 @@
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="43"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="90"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="10"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -4476,19 +4458,19 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="104">
+      <c r="P15" s="81">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="Q15" s="105">
+      <c r="Q15" s="82">
         <f t="shared" si="2"/>
         <v>512</v>
       </c>
-      <c r="R15" s="105">
+      <c r="R15" s="82">
         <f t="shared" si="3"/>
         <v>5120</v>
       </c>
-      <c r="S15" s="106">
+      <c r="S15" s="83">
         <f t="shared" si="4"/>
         <v>14400</v>
       </c>
@@ -4506,8 +4488,8 @@
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="66"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="52"/>
       <c r="H16" s="24"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -4516,19 +4498,19 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="104">
+      <c r="P16" s="81">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="Q16" s="105">
+      <c r="Q16" s="82">
         <f t="shared" si="2"/>
         <v>1024</v>
       </c>
-      <c r="R16" s="105">
+      <c r="R16" s="82">
         <f t="shared" si="3"/>
         <v>10240</v>
       </c>
-      <c r="S16" s="106">
+      <c r="S16" s="83">
         <f t="shared" si="4"/>
         <v>28800</v>
       </c>
@@ -4548,7 +4530,7 @@
       <c r="B17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="56" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -4557,10 +4539,10 @@
       <c r="E17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="F17" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="66" t="s">
+      <c r="G17" s="52" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="10"/>
@@ -4571,19 +4553,19 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="107">
+      <c r="P17" s="84">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="Q17" s="108">
+      <c r="Q17" s="85">
         <f t="shared" si="2"/>
         <v>2048</v>
       </c>
-      <c r="R17" s="108">
+      <c r="R17" s="85">
         <f t="shared" si="3"/>
         <v>20480</v>
       </c>
-      <c r="S17" s="109">
+      <c r="S17" s="86">
         <f t="shared" si="4"/>
         <v>57600</v>
       </c>
@@ -4602,8 +4584,8 @@
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="89"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="66"/>
       <c r="H18" s="18"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -4625,10 +4607,10 @@
       <c r="A19" s="20"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="62"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="38"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="92"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="69"/>
       <c r="H19" s="10"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -4637,10 +4619,10 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="99"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="76"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
@@ -4657,19 +4639,19 @@
       <c r="B20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="53" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="68" t="s">
+      <c r="F20" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="73" t="s">
+      <c r="G20" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="40"/>
@@ -4699,8 +4681,8 @@
       <c r="C21" s="26"/>
       <c r="D21" s="33"/>
       <c r="E21" s="34"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="89"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="66"/>
       <c r="H21" s="18"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -4728,8 +4710,8 @@
       <c r="C22" s="13"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="92"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="10"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -4758,19 +4740,19 @@
       <c r="B23" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="56" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="68" t="s">
+      <c r="F23" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="73" t="s">
+      <c r="G23" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H23" s="40"/>
@@ -4800,8 +4782,8 @@
       <c r="C24" s="13"/>
       <c r="D24" s="43"/>
       <c r="E24" s="43"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="89"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="66"/>
       <c r="H24" s="10"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -4829,7 +4811,7 @@
       <c r="C25" s="37"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
-      <c r="F25" s="68"/>
+      <c r="F25" s="54"/>
       <c r="H25" s="24"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -4858,19 +4840,19 @@
       <c r="B26" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="63" t="s">
+      <c r="E26" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="68" t="s">
+      <c r="F26" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G26" s="73" t="s">
+      <c r="G26" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H26" s="40"/>
@@ -4900,8 +4882,8 @@
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
       <c r="E27" s="43"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="89"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="66"/>
       <c r="H27" s="18"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -4929,7 +4911,7 @@
       <c r="C28" s="13"/>
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
-      <c r="F28" s="68"/>
+      <c r="F28" s="54"/>
       <c r="H28" s="24"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -4955,22 +4937,22 @@
       <c r="A29" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="68" t="s">
+      <c r="F29" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G29" s="73" t="s">
+      <c r="G29" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H29" s="40"/>
@@ -5000,15 +4982,15 @@
       <c r="C30" s="26"/>
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="89"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="18"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="79" t="s">
+      <c r="J30" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="K30" s="80"/>
-      <c r="L30" s="81"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="96"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -5031,15 +5013,15 @@
       <c r="C31" s="13"/>
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="92"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="69"/>
       <c r="H31" s="10"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="82" t="s">
+      <c r="J31" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="K31" s="83"/>
-      <c r="L31" s="84"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="90"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -5063,28 +5045,28 @@
       <c r="B32" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="63" t="s">
+      <c r="D32" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="63" t="s">
+      <c r="E32" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="68" t="s">
+      <c r="F32" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G32" s="73" t="s">
+      <c r="G32" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H32" s="40"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="82" t="s">
+      <c r="J32" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="K32" s="83"/>
-      <c r="L32" s="84"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="90"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -5107,15 +5089,15 @@
       <c r="C33" s="26"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="89"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="66"/>
       <c r="H33" s="18"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="82" t="s">
+      <c r="J33" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="K33" s="83"/>
-      <c r="L33" s="84"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="90"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -5136,16 +5118,16 @@
       <c r="A34" s="13"/>
       <c r="B34" s="30"/>
       <c r="C34" s="13"/>
-      <c r="D34" s="62"/>
+      <c r="D34" s="48"/>
       <c r="E34" s="38"/>
-      <c r="F34" s="68"/>
+      <c r="F34" s="54"/>
       <c r="H34" s="10"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="82" t="s">
+      <c r="J34" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="K34" s="83"/>
-      <c r="L34" s="84"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="90"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -5169,28 +5151,28 @@
       <c r="B35" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="68" t="s">
+      <c r="F35" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G35" s="73" t="s">
+      <c r="G35" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H35" s="40"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="85" t="s">
+      <c r="J35" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="K35" s="86"/>
-      <c r="L35" s="87"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="93"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
@@ -5213,12 +5195,12 @@
       <c r="C36" s="32"/>
       <c r="D36" s="32"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="89"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="66"/>
       <c r="H36" s="42"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -5242,9 +5224,9 @@
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="64"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="50"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -5266,25 +5248,25 @@
       <c r="AA37" s="4"/>
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="70" t="s">
+      <c r="C38" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="63" t="s">
+      <c r="D38" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="63" t="s">
+      <c r="E38" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="F38" s="68" t="s">
+      <c r="F38" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G38" s="73" t="s">
+      <c r="G38" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H38" s="41"/>
@@ -5314,9 +5296,9 @@
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="65"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="51"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -5343,9 +5325,9 @@
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="64"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="50"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -5367,25 +5349,25 @@
       <c r="AA40" s="4"/>
     </row>
     <row r="41" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="68" t="s">
+      <c r="B41" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="63" t="s">
+      <c r="D41" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="63" t="s">
+      <c r="E41" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="F41" s="68" t="s">
+      <c r="F41" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G41" s="73" t="s">
+      <c r="G41" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H41" s="41"/>
@@ -5415,9 +5397,9 @@
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="65"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="51"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -5444,9 +5426,9 @@
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="92"/>
-      <c r="H43" s="64"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="50"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -5468,25 +5450,25 @@
       <c r="AA43" s="4"/>
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="75" t="s">
+      <c r="A44" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="68" t="s">
+      <c r="B44" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="70" t="s">
+      <c r="C44" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="63" t="s">
+      <c r="D44" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="63" t="s">
+      <c r="E44" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="68" t="s">
+      <c r="F44" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G44" s="73" t="s">
+      <c r="G44" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H44" s="41"/>
@@ -5516,9 +5498,9 @@
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="65"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="51"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -5545,9 +5527,9 @@
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="64"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="50"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -5569,25 +5551,25 @@
       <c r="AA46" s="4"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="68" t="s">
+      <c r="B47" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="70" t="s">
+      <c r="C47" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="63" t="s">
+      <c r="D47" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="63" t="s">
+      <c r="E47" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="68" t="s">
+      <c r="F47" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G47" s="73" t="s">
+      <c r="G47" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H47" s="41"/>
@@ -5617,9 +5599,9 @@
       <c r="C48" s="32"/>
       <c r="D48" s="32"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="65"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="51"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -5646,9 +5628,9 @@
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="64"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="50"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -5670,25 +5652,25 @@
       <c r="AA49" s="4"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="75" t="s">
+      <c r="A50" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="68" t="s">
+      <c r="B50" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="70" t="s">
+      <c r="C50" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="63" t="s">
+      <c r="D50" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="E50" s="63" t="s">
+      <c r="E50" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="68" t="s">
+      <c r="F50" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="73" t="s">
+      <c r="G50" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H50" s="41"/>
@@ -5718,9 +5700,9 @@
       <c r="C51" s="32"/>
       <c r="D51" s="32"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="65"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="51"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -5747,9 +5729,9 @@
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="92"/>
-      <c r="H52" s="64"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="50"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -5771,25 +5753,25 @@
       <c r="AA52" s="4"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="75" t="s">
+      <c r="A53" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="68" t="s">
+      <c r="B53" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="70" t="s">
+      <c r="C53" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="63" t="s">
+      <c r="D53" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="E53" s="63" t="s">
+      <c r="E53" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F53" s="68" t="s">
+      <c r="F53" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G53" s="73" t="s">
+      <c r="G53" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H53" s="41"/>
@@ -5819,9 +5801,9 @@
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="65"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="51"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -5848,9 +5830,9 @@
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="92"/>
-      <c r="H55" s="64"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="50"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -5872,25 +5854,25 @@
       <c r="AA55" s="4"/>
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="75" t="s">
+      <c r="A56" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="68" t="s">
+      <c r="B56" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="70" t="s">
+      <c r="C56" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="63" t="s">
+      <c r="D56" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="E56" s="63" t="s">
+      <c r="E56" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="F56" s="68" t="s">
+      <c r="F56" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G56" s="73" t="s">
+      <c r="G56" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H56" s="41"/>
@@ -5920,9 +5902,9 @@
       <c r="C57" s="32"/>
       <c r="D57" s="32"/>
       <c r="E57" s="32"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="89"/>
-      <c r="H57" s="65"/>
+      <c r="F57" s="73"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="51"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -5949,9 +5931,9 @@
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
       <c r="E58" s="27"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="92"/>
-      <c r="H58" s="64"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="50"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -5973,25 +5955,25 @@
       <c r="AA58" s="4"/>
     </row>
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="75" t="s">
+      <c r="A59" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="68" t="s">
+      <c r="B59" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="70" t="s">
+      <c r="C59" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="63" t="s">
+      <c r="D59" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="E59" s="63" t="s">
+      <c r="E59" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="F59" s="68" t="s">
+      <c r="F59" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G59" s="73" t="s">
+      <c r="G59" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H59" s="41"/>
@@ -6021,9 +6003,9 @@
       <c r="C60" s="32"/>
       <c r="D60" s="32"/>
       <c r="E60" s="32"/>
-      <c r="F60" s="96"/>
-      <c r="G60" s="89"/>
-      <c r="H60" s="65"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="51"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -6050,9 +6032,9 @@
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="92"/>
-      <c r="H61" s="64"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="50"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -6074,25 +6056,25 @@
       <c r="AA61" s="4"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="75" t="s">
+      <c r="A62" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="68" t="s">
+      <c r="B62" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="70" t="s">
+      <c r="C62" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="63" t="s">
+      <c r="D62" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="E62" s="63" t="s">
+      <c r="E62" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="F62" s="68" t="s">
+      <c r="F62" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G62" s="73" t="s">
+      <c r="G62" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H62" s="41"/>
@@ -6122,9 +6104,9 @@
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
       <c r="E63" s="32"/>
-      <c r="F63" s="96"/>
-      <c r="G63" s="89"/>
-      <c r="H63" s="65"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="51"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -6151,9 +6133,9 @@
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
       <c r="E64" s="27"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="92"/>
-      <c r="H64" s="64"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="50"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -6175,25 +6157,25 @@
       <c r="AA64" s="4"/>
     </row>
     <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="75" t="s">
+      <c r="A65" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="68" t="s">
+      <c r="B65" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C65" s="70" t="s">
+      <c r="C65" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="D65" s="68" t="s">
+      <c r="D65" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="E65" s="68" t="s">
+      <c r="E65" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="F65" s="68" t="s">
+      <c r="F65" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G65" s="73" t="s">
+      <c r="G65" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H65" s="41"/>
@@ -6223,9 +6205,9 @@
       <c r="C66" s="32"/>
       <c r="D66" s="32"/>
       <c r="E66" s="32"/>
-      <c r="F66" s="96"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="65"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="51"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
@@ -6252,9 +6234,9 @@
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
-      <c r="F67" s="68"/>
-      <c r="G67" s="92"/>
-      <c r="H67" s="64"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="50"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
@@ -6276,25 +6258,25 @@
       <c r="AA67" s="4"/>
     </row>
     <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="75" t="s">
+      <c r="A68" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="68" t="s">
+      <c r="B68" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="70" t="s">
+      <c r="C68" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="D68" s="63" t="s">
+      <c r="D68" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="E68" s="63" t="s">
+      <c r="E68" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="F68" s="68" t="s">
+      <c r="F68" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G68" s="73" t="s">
+      <c r="G68" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H68" s="41"/>
@@ -6324,9 +6306,9 @@
       <c r="C69" s="32"/>
       <c r="D69" s="32"/>
       <c r="E69" s="32"/>
-      <c r="F69" s="96"/>
-      <c r="G69" s="89"/>
-      <c r="H69" s="65"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="51"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
@@ -6353,9 +6335,9 @@
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
       <c r="E70" s="27"/>
-      <c r="F70" s="68"/>
-      <c r="G70" s="92"/>
-      <c r="H70" s="64"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="50"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -6377,25 +6359,25 @@
       <c r="AA70" s="4"/>
     </row>
     <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="75" t="s">
+      <c r="A71" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="68" t="s">
+      <c r="B71" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C71" s="70" t="s">
+      <c r="C71" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="D71" s="63" t="s">
+      <c r="D71" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E71" s="63" t="s">
+      <c r="E71" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="F71" s="68" t="s">
+      <c r="F71" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G71" s="73" t="s">
+      <c r="G71" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H71" s="41"/>
@@ -6425,9 +6407,9 @@
       <c r="C72" s="32"/>
       <c r="D72" s="32"/>
       <c r="E72" s="32"/>
-      <c r="F72" s="96"/>
-      <c r="G72" s="89"/>
-      <c r="H72" s="65"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="51"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
@@ -6454,9 +6436,9 @@
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
       <c r="E73" s="27"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="92"/>
-      <c r="H73" s="64"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="69"/>
+      <c r="H73" s="50"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -6478,25 +6460,25 @@
       <c r="AA73" s="4"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="75" t="s">
+      <c r="A74" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="68" t="s">
+      <c r="B74" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="C74" s="70" t="s">
+      <c r="C74" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="D74" s="63" t="s">
+      <c r="D74" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="E74" s="63" t="s">
+      <c r="E74" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="F74" s="68" t="s">
+      <c r="F74" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G74" s="73" t="s">
+      <c r="G74" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H74" s="41"/>
@@ -6526,9 +6508,9 @@
       <c r="C75" s="32"/>
       <c r="D75" s="32"/>
       <c r="E75" s="32"/>
-      <c r="F75" s="96"/>
-      <c r="G75" s="89"/>
-      <c r="H75" s="65"/>
+      <c r="F75" s="73"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="51"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -6555,9 +6537,9 @@
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="92"/>
-      <c r="H76" s="64"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="50"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -6579,25 +6561,25 @@
       <c r="AA76" s="4"/>
     </row>
     <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="75" t="s">
+      <c r="A77" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="68" t="s">
+      <c r="B77" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="C77" s="70" t="s">
+      <c r="C77" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="D77" s="63" t="s">
+      <c r="D77" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="E77" s="63" t="s">
+      <c r="E77" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="F77" s="68" t="s">
+      <c r="F77" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G77" s="73" t="s">
+      <c r="G77" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H77" s="41"/>
@@ -6627,9 +6609,9 @@
       <c r="C78" s="32"/>
       <c r="D78" s="32"/>
       <c r="E78" s="32"/>
-      <c r="F78" s="96"/>
-      <c r="G78" s="89"/>
-      <c r="H78" s="65"/>
+      <c r="F78" s="73"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="51"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -6656,9 +6638,9 @@
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
       <c r="E79" s="27"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="92"/>
-      <c r="H79" s="64"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="69"/>
+      <c r="H79" s="50"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -6680,25 +6662,25 @@
       <c r="AA79" s="4"/>
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="75" t="s">
+      <c r="A80" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="68" t="s">
+      <c r="B80" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C80" s="70" t="s">
+      <c r="C80" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="D80" s="63" t="s">
+      <c r="D80" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="E80" s="63" t="s">
+      <c r="E80" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F80" s="68" t="s">
+      <c r="F80" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G80" s="73" t="s">
+      <c r="G80" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H80" s="41"/>
@@ -6728,9 +6710,9 @@
       <c r="C81" s="32"/>
       <c r="D81" s="32"/>
       <c r="E81" s="32"/>
-      <c r="F81" s="96"/>
-      <c r="G81" s="89"/>
-      <c r="H81" s="65"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="51"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -6757,9 +6739,9 @@
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
       <c r="E82" s="27"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="92"/>
-      <c r="H82" s="64"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="69"/>
+      <c r="H82" s="50"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
@@ -6781,25 +6763,25 @@
       <c r="AA82" s="4"/>
     </row>
     <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="75" t="s">
+      <c r="A83" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B83" s="68" t="s">
+      <c r="B83" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C83" s="70" t="s">
+      <c r="C83" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="D83" s="63" t="s">
+      <c r="D83" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="E83" s="63" t="s">
+      <c r="E83" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="F83" s="68" t="s">
+      <c r="F83" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G83" s="73" t="s">
+      <c r="G83" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H83" s="41"/>
@@ -6829,9 +6811,9 @@
       <c r="C84" s="32"/>
       <c r="D84" s="32"/>
       <c r="E84" s="32"/>
-      <c r="F84" s="96"/>
-      <c r="G84" s="89"/>
-      <c r="H84" s="65"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="66"/>
+      <c r="H84" s="51"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
@@ -6858,9 +6840,9 @@
       <c r="C85" s="27"/>
       <c r="D85" s="27"/>
       <c r="E85" s="27"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="92"/>
-      <c r="H85" s="64"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="69"/>
+      <c r="H85" s="50"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
@@ -6882,25 +6864,25 @@
       <c r="AA85" s="4"/>
     </row>
     <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="75" t="s">
+      <c r="A86" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="68" t="s">
+      <c r="B86" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C86" s="70" t="s">
+      <c r="C86" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="D86" s="63" t="s">
+      <c r="D86" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="E86" s="63" t="s">
+      <c r="E86" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="F86" s="68" t="s">
+      <c r="F86" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G86" s="73" t="s">
+      <c r="G86" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H86" s="41"/>
@@ -6930,9 +6912,9 @@
       <c r="C87" s="32"/>
       <c r="D87" s="32"/>
       <c r="E87" s="32"/>
-      <c r="F87" s="96"/>
-      <c r="G87" s="89"/>
-      <c r="H87" s="65"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="51"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -6959,9 +6941,9 @@
       <c r="C88" s="27"/>
       <c r="D88" s="27"/>
       <c r="E88" s="27"/>
-      <c r="F88" s="68"/>
-      <c r="G88" s="92"/>
-      <c r="H88" s="64"/>
+      <c r="F88" s="54"/>
+      <c r="G88" s="69"/>
+      <c r="H88" s="50"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -6983,25 +6965,25 @@
       <c r="AA88" s="4"/>
     </row>
     <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="75" t="s">
+      <c r="A89" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="B89" s="68" t="s">
+      <c r="B89" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C89" s="70" t="s">
+      <c r="C89" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="D89" s="63" t="s">
+      <c r="D89" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="E89" s="63" t="s">
+      <c r="E89" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="F89" s="68" t="s">
+      <c r="F89" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="G89" s="73" t="s">
+      <c r="G89" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H89" s="41"/>
@@ -7031,9 +7013,9 @@
       <c r="C90" s="32"/>
       <c r="D90" s="32"/>
       <c r="E90" s="32"/>
-      <c r="F90" s="96"/>
-      <c r="G90" s="89"/>
-      <c r="H90" s="65"/>
+      <c r="F90" s="73"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="51"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -7060,9 +7042,9 @@
       <c r="C91" s="27"/>
       <c r="D91" s="27"/>
       <c r="E91" s="27"/>
-      <c r="F91" s="68"/>
-      <c r="G91" s="92"/>
-      <c r="H91" s="64"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="69"/>
+      <c r="H91" s="50"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
@@ -7084,25 +7066,25 @@
       <c r="AA91" s="4"/>
     </row>
     <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="75" t="s">
+      <c r="A92" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="B92" s="67" t="s">
+      <c r="B92" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="C92" s="70" t="s">
+      <c r="C92" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D92" s="68" t="s">
+      <c r="D92" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="E92" s="68" t="s">
+      <c r="E92" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="F92" s="68" t="s">
+      <c r="F92" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="G92" s="73" t="s">
+      <c r="G92" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H92" s="41"/>
@@ -7132,9 +7114,9 @@
       <c r="C93" s="32"/>
       <c r="D93" s="32"/>
       <c r="E93" s="32"/>
-      <c r="F93" s="96"/>
-      <c r="G93" s="89"/>
-      <c r="H93" s="65"/>
+      <c r="F93" s="73"/>
+      <c r="G93" s="66"/>
+      <c r="H93" s="51"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
@@ -7161,9 +7143,9 @@
       <c r="C94" s="27"/>
       <c r="D94" s="27"/>
       <c r="E94" s="27"/>
-      <c r="F94" s="68"/>
-      <c r="G94" s="92"/>
-      <c r="H94" s="64"/>
+      <c r="F94" s="54"/>
+      <c r="G94" s="69"/>
+      <c r="H94" s="50"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
@@ -7185,25 +7167,25 @@
       <c r="AA94" s="4"/>
     </row>
     <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="75" t="s">
+      <c r="A95" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="B95" s="68" t="s">
+      <c r="B95" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="C95" s="70" t="s">
+      <c r="C95" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="D95" s="68" t="s">
+      <c r="D95" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="E95" s="68" t="s">
+      <c r="E95" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="F95" s="68" t="s">
+      <c r="F95" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="G95" s="73" t="s">
+      <c r="G95" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H95" s="41"/>
@@ -7233,9 +7215,9 @@
       <c r="C96" s="32"/>
       <c r="D96" s="32"/>
       <c r="E96" s="32"/>
-      <c r="F96" s="96"/>
-      <c r="G96" s="89"/>
-      <c r="H96" s="65"/>
+      <c r="F96" s="73"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="51"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
@@ -7262,9 +7244,9 @@
       <c r="C97" s="27"/>
       <c r="D97" s="27"/>
       <c r="E97" s="27"/>
-      <c r="F97" s="68"/>
-      <c r="G97" s="92"/>
-      <c r="H97" s="64"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="69"/>
+      <c r="H97" s="50"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
@@ -7286,25 +7268,25 @@
       <c r="AA97" s="4"/>
     </row>
     <row r="98" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="75" t="s">
+      <c r="A98" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="B98" s="68" t="s">
+      <c r="B98" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="C98" s="70" t="s">
+      <c r="C98" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="D98" s="63" t="s">
+      <c r="D98" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="E98" s="63" t="s">
+      <c r="E98" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="F98" s="68" t="s">
+      <c r="F98" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="G98" s="73" t="s">
+      <c r="G98" s="59" t="s">
         <v>23</v>
       </c>
       <c r="H98" s="41"/>
@@ -7334,9 +7316,9 @@
       <c r="C99" s="32"/>
       <c r="D99" s="32"/>
       <c r="E99" s="32"/>
-      <c r="F99" s="96"/>
-      <c r="G99" s="89"/>
-      <c r="H99" s="65"/>
+      <c r="F99" s="73"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="51"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
@@ -7363,7 +7345,7 @@
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="94"/>
+      <c r="F100" s="71"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
@@ -7392,7 +7374,7 @@
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
-      <c r="F101" s="94"/>
+      <c r="F101" s="71"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
@@ -7421,7 +7403,7 @@
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="94"/>
+      <c r="F102" s="71"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
@@ -7450,7 +7432,7 @@
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
-      <c r="F103" s="94"/>
+      <c r="F103" s="71"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
@@ -7479,7 +7461,7 @@
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
-      <c r="F104" s="94"/>
+      <c r="F104" s="71"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
@@ -7508,7 +7490,7 @@
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
-      <c r="F105" s="94"/>
+      <c r="F105" s="71"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
@@ -7537,7 +7519,7 @@
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
-      <c r="F106" s="94"/>
+      <c r="F106" s="71"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
@@ -7566,7 +7548,7 @@
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
-      <c r="F107" s="94"/>
+      <c r="F107" s="71"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
@@ -7595,7 +7577,7 @@
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="94"/>
+      <c r="F108" s="71"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
@@ -7624,7 +7606,7 @@
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="94"/>
+      <c r="F109" s="71"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
@@ -7653,7 +7635,7 @@
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
-      <c r="F110" s="94"/>
+      <c r="F110" s="71"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
@@ -7682,7 +7664,7 @@
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="94"/>
+      <c r="F111" s="71"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
@@ -7711,7 +7693,7 @@
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="94"/>
+      <c r="F112" s="71"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
@@ -7740,7 +7722,7 @@
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
-      <c r="F113" s="94"/>
+      <c r="F113" s="71"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
@@ -7769,7 +7751,7 @@
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
-      <c r="F114" s="94"/>
+      <c r="F114" s="71"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
@@ -7798,7 +7780,7 @@
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
-      <c r="F115" s="94"/>
+      <c r="F115" s="71"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
@@ -7827,7 +7809,7 @@
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="94"/>
+      <c r="F116" s="71"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
@@ -7856,7 +7838,7 @@
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
-      <c r="F117" s="94"/>
+      <c r="F117" s="71"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
@@ -7885,7 +7867,7 @@
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
-      <c r="F118" s="94"/>
+      <c r="F118" s="71"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
@@ -7914,7 +7896,7 @@
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="94"/>
+      <c r="F119" s="71"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
@@ -7943,7 +7925,7 @@
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
-      <c r="F120" s="94"/>
+      <c r="F120" s="71"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
@@ -7972,7 +7954,7 @@
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
-      <c r="F121" s="94"/>
+      <c r="F121" s="71"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
@@ -8001,7 +7983,7 @@
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
-      <c r="F122" s="94"/>
+      <c r="F122" s="71"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
@@ -8030,7 +8012,7 @@
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
-      <c r="F123" s="94"/>
+      <c r="F123" s="71"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
@@ -8059,7 +8041,7 @@
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
-      <c r="F124" s="94"/>
+      <c r="F124" s="71"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
@@ -8088,7 +8070,7 @@
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
-      <c r="F125" s="94"/>
+      <c r="F125" s="71"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
@@ -8117,7 +8099,7 @@
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
-      <c r="F126" s="94"/>
+      <c r="F126" s="71"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
@@ -8146,7 +8128,7 @@
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
-      <c r="F127" s="94"/>
+      <c r="F127" s="71"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
@@ -8175,7 +8157,7 @@
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
-      <c r="F128" s="94"/>
+      <c r="F128" s="71"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
@@ -8204,7 +8186,7 @@
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
-      <c r="F129" s="94"/>
+      <c r="F129" s="71"/>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
@@ -8233,7 +8215,7 @@
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
-      <c r="F130" s="94"/>
+      <c r="F130" s="71"/>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
@@ -8262,7 +8244,7 @@
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
-      <c r="F131" s="94"/>
+      <c r="F131" s="71"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
@@ -8291,7 +8273,7 @@
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
-      <c r="F132" s="94"/>
+      <c r="F132" s="71"/>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
@@ -8320,7 +8302,7 @@
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
-      <c r="F133" s="94"/>
+      <c r="F133" s="71"/>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
@@ -8349,7 +8331,7 @@
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
-      <c r="F134" s="94"/>
+      <c r="F134" s="71"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
@@ -8378,7 +8360,7 @@
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
-      <c r="F135" s="94"/>
+      <c r="F135" s="71"/>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
@@ -8407,7 +8389,7 @@
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
-      <c r="F136" s="94"/>
+      <c r="F136" s="71"/>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
@@ -8436,7 +8418,7 @@
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
-      <c r="F137" s="94"/>
+      <c r="F137" s="71"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
@@ -8465,7 +8447,7 @@
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
-      <c r="F138" s="94"/>
+      <c r="F138" s="71"/>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
@@ -8494,7 +8476,7 @@
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
-      <c r="F139" s="94"/>
+      <c r="F139" s="71"/>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
@@ -8523,7 +8505,7 @@
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
-      <c r="F140" s="94"/>
+      <c r="F140" s="71"/>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
@@ -8552,7 +8534,7 @@
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
-      <c r="F141" s="94"/>
+      <c r="F141" s="71"/>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
@@ -8581,7 +8563,7 @@
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
-      <c r="F142" s="94"/>
+      <c r="F142" s="71"/>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
@@ -8610,7 +8592,7 @@
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
-      <c r="F143" s="94"/>
+      <c r="F143" s="71"/>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
@@ -8639,7 +8621,7 @@
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
-      <c r="F144" s="94"/>
+      <c r="F144" s="71"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
@@ -8668,7 +8650,7 @@
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
-      <c r="F145" s="94"/>
+      <c r="F145" s="71"/>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
@@ -8697,7 +8679,7 @@
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
-      <c r="F146" s="94"/>
+      <c r="F146" s="71"/>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
@@ -8726,7 +8708,7 @@
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
-      <c r="F147" s="94"/>
+      <c r="F147" s="71"/>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
@@ -8755,7 +8737,7 @@
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
-      <c r="F148" s="94"/>
+      <c r="F148" s="71"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
@@ -8784,7 +8766,7 @@
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
-      <c r="F149" s="94"/>
+      <c r="F149" s="71"/>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
@@ -8813,7 +8795,7 @@
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
-      <c r="F150" s="94"/>
+      <c r="F150" s="71"/>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
@@ -8842,7 +8824,7 @@
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
-      <c r="F151" s="94"/>
+      <c r="F151" s="71"/>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
@@ -8871,7 +8853,7 @@
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
-      <c r="F152" s="94"/>
+      <c r="F152" s="71"/>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
@@ -8900,7 +8882,7 @@
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
-      <c r="F153" s="94"/>
+      <c r="F153" s="71"/>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
@@ -8929,7 +8911,7 @@
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
-      <c r="F154" s="94"/>
+      <c r="F154" s="71"/>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
@@ -8958,7 +8940,7 @@
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
-      <c r="F155" s="94"/>
+      <c r="F155" s="71"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
@@ -8987,7 +8969,7 @@
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
-      <c r="F156" s="94"/>
+      <c r="F156" s="71"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
@@ -9016,7 +8998,7 @@
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
-      <c r="F157" s="94"/>
+      <c r="F157" s="71"/>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
@@ -9045,7 +9027,7 @@
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
-      <c r="F158" s="94"/>
+      <c r="F158" s="71"/>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
@@ -9074,7 +9056,7 @@
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
-      <c r="F159" s="94"/>
+      <c r="F159" s="71"/>
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
@@ -9103,7 +9085,7 @@
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
-      <c r="F160" s="94"/>
+      <c r="F160" s="71"/>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
@@ -9132,7 +9114,7 @@
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
-      <c r="F161" s="94"/>
+      <c r="F161" s="71"/>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
@@ -9161,7 +9143,7 @@
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
-      <c r="F162" s="94"/>
+      <c r="F162" s="71"/>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
@@ -9190,7 +9172,7 @@
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
-      <c r="F163" s="94"/>
+      <c r="F163" s="71"/>
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
@@ -9219,7 +9201,7 @@
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
-      <c r="F164" s="94"/>
+      <c r="F164" s="71"/>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
@@ -9248,7 +9230,7 @@
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
-      <c r="F165" s="94"/>
+      <c r="F165" s="71"/>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
@@ -9277,7 +9259,7 @@
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
-      <c r="F166" s="94"/>
+      <c r="F166" s="71"/>
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
@@ -9306,7 +9288,7 @@
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
-      <c r="F167" s="94"/>
+      <c r="F167" s="71"/>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
@@ -9335,7 +9317,7 @@
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
-      <c r="F168" s="94"/>
+      <c r="F168" s="71"/>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
@@ -9364,7 +9346,7 @@
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
-      <c r="F169" s="94"/>
+      <c r="F169" s="71"/>
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
@@ -9393,7 +9375,7 @@
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
-      <c r="F170" s="94"/>
+      <c r="F170" s="71"/>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
@@ -9422,7 +9404,7 @@
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
-      <c r="F171" s="94"/>
+      <c r="F171" s="71"/>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
@@ -9451,7 +9433,7 @@
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
-      <c r="F172" s="94"/>
+      <c r="F172" s="71"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
@@ -9480,7 +9462,7 @@
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
-      <c r="F173" s="94"/>
+      <c r="F173" s="71"/>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
@@ -9509,7 +9491,7 @@
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
-      <c r="F174" s="94"/>
+      <c r="F174" s="71"/>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
@@ -9538,7 +9520,7 @@
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
-      <c r="F175" s="94"/>
+      <c r="F175" s="71"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
@@ -9567,7 +9549,7 @@
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
-      <c r="F176" s="94"/>
+      <c r="F176" s="71"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
@@ -9596,7 +9578,7 @@
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
-      <c r="F177" s="94"/>
+      <c r="F177" s="71"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
@@ -9625,7 +9607,7 @@
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
-      <c r="F178" s="94"/>
+      <c r="F178" s="71"/>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
@@ -9654,7 +9636,7 @@
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
-      <c r="F179" s="94"/>
+      <c r="F179" s="71"/>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
@@ -9683,7 +9665,7 @@
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
-      <c r="F180" s="94"/>
+      <c r="F180" s="71"/>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
@@ -9712,7 +9694,7 @@
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
-      <c r="F181" s="94"/>
+      <c r="F181" s="71"/>
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
@@ -9741,7 +9723,7 @@
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
-      <c r="F182" s="94"/>
+      <c r="F182" s="71"/>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
@@ -9770,7 +9752,7 @@
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
-      <c r="F183" s="94"/>
+      <c r="F183" s="71"/>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
@@ -9799,7 +9781,7 @@
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
-      <c r="F184" s="94"/>
+      <c r="F184" s="71"/>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
@@ -9828,7 +9810,7 @@
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
-      <c r="F185" s="94"/>
+      <c r="F185" s="71"/>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
@@ -9857,7 +9839,7 @@
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
-      <c r="F186" s="94"/>
+      <c r="F186" s="71"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
@@ -9886,7 +9868,7 @@
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
-      <c r="F187" s="94"/>
+      <c r="F187" s="71"/>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
@@ -9915,7 +9897,7 @@
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
-      <c r="F188" s="94"/>
+      <c r="F188" s="71"/>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
@@ -9944,7 +9926,7 @@
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
-      <c r="F189" s="94"/>
+      <c r="F189" s="71"/>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
@@ -9973,7 +9955,7 @@
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
-      <c r="F190" s="94"/>
+      <c r="F190" s="71"/>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
@@ -10002,7 +9984,7 @@
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
-      <c r="F191" s="94"/>
+      <c r="F191" s="71"/>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
@@ -10031,7 +10013,7 @@
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
-      <c r="F192" s="94"/>
+      <c r="F192" s="71"/>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
@@ -10060,7 +10042,7 @@
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
-      <c r="F193" s="94"/>
+      <c r="F193" s="71"/>
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
@@ -10089,7 +10071,7 @@
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
-      <c r="F194" s="94"/>
+      <c r="F194" s="71"/>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
@@ -10118,7 +10100,7 @@
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
-      <c r="F195" s="94"/>
+      <c r="F195" s="71"/>
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
@@ -10147,7 +10129,7 @@
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
-      <c r="F196" s="94"/>
+      <c r="F196" s="71"/>
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
@@ -10176,7 +10158,7 @@
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
-      <c r="F197" s="94"/>
+      <c r="F197" s="71"/>
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
@@ -10205,7 +10187,7 @@
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
-      <c r="F198" s="94"/>
+      <c r="F198" s="71"/>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
@@ -10234,7 +10216,7 @@
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
-      <c r="F199" s="94"/>
+      <c r="F199" s="71"/>
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
@@ -10263,7 +10245,7 @@
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
-      <c r="F200" s="94"/>
+      <c r="F200" s="71"/>
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
@@ -10292,7 +10274,7 @@
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
-      <c r="F201" s="94"/>
+      <c r="F201" s="71"/>
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
@@ -10321,7 +10303,7 @@
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
-      <c r="F202" s="94"/>
+      <c r="F202" s="71"/>
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
@@ -10350,7 +10332,7 @@
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
-      <c r="F203" s="94"/>
+      <c r="F203" s="71"/>
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
@@ -10379,7 +10361,7 @@
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
-      <c r="F204" s="94"/>
+      <c r="F204" s="71"/>
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
@@ -10408,7 +10390,7 @@
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
-      <c r="F205" s="94"/>
+      <c r="F205" s="71"/>
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
@@ -10437,7 +10419,7 @@
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
-      <c r="F206" s="94"/>
+      <c r="F206" s="71"/>
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
@@ -10466,7 +10448,7 @@
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
-      <c r="F207" s="94"/>
+      <c r="F207" s="71"/>
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
@@ -10495,7 +10477,7 @@
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
-      <c r="F208" s="94"/>
+      <c r="F208" s="71"/>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
@@ -10524,7 +10506,7 @@
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
-      <c r="F209" s="94"/>
+      <c r="F209" s="71"/>
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
@@ -10553,7 +10535,7 @@
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
-      <c r="F210" s="94"/>
+      <c r="F210" s="71"/>
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
@@ -10582,7 +10564,7 @@
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
-      <c r="F211" s="94"/>
+      <c r="F211" s="71"/>
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
@@ -10611,7 +10593,7 @@
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
-      <c r="F212" s="94"/>
+      <c r="F212" s="71"/>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
@@ -10640,7 +10622,7 @@
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
-      <c r="F213" s="94"/>
+      <c r="F213" s="71"/>
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
@@ -10669,7 +10651,7 @@
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
-      <c r="F214" s="94"/>
+      <c r="F214" s="71"/>
       <c r="G214" s="4"/>
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
@@ -10698,7 +10680,7 @@
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
-      <c r="F215" s="94"/>
+      <c r="F215" s="71"/>
       <c r="G215" s="4"/>
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
@@ -10727,7 +10709,7 @@
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
-      <c r="F216" s="94"/>
+      <c r="F216" s="71"/>
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
@@ -10756,7 +10738,7 @@
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
-      <c r="F217" s="94"/>
+      <c r="F217" s="71"/>
       <c r="G217" s="4"/>
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
@@ -10785,7 +10767,7 @@
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
-      <c r="F218" s="94"/>
+      <c r="F218" s="71"/>
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
@@ -10814,7 +10796,7 @@
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
-      <c r="F219" s="94"/>
+      <c r="F219" s="71"/>
       <c r="G219" s="4"/>
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
@@ -10843,7 +10825,7 @@
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
-      <c r="F220" s="94"/>
+      <c r="F220" s="71"/>
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
@@ -10872,7 +10854,7 @@
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
-      <c r="F221" s="94"/>
+      <c r="F221" s="71"/>
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
@@ -10901,7 +10883,7 @@
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
-      <c r="F222" s="94"/>
+      <c r="F222" s="71"/>
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
@@ -10930,7 +10912,7 @@
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
-      <c r="F223" s="94"/>
+      <c r="F223" s="71"/>
       <c r="G223" s="4"/>
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
@@ -10959,7 +10941,7 @@
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
-      <c r="F224" s="94"/>
+      <c r="F224" s="71"/>
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
@@ -10988,7 +10970,7 @@
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
-      <c r="F225" s="94"/>
+      <c r="F225" s="71"/>
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
@@ -11017,7 +10999,7 @@
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
-      <c r="F226" s="94"/>
+      <c r="F226" s="71"/>
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
@@ -11046,7 +11028,7 @@
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
-      <c r="F227" s="94"/>
+      <c r="F227" s="71"/>
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
@@ -11075,7 +11057,7 @@
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
-      <c r="F228" s="94"/>
+      <c r="F228" s="71"/>
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
@@ -11104,7 +11086,7 @@
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
-      <c r="F229" s="94"/>
+      <c r="F229" s="71"/>
       <c r="G229" s="4"/>
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
@@ -11133,7 +11115,7 @@
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
-      <c r="F230" s="94"/>
+      <c r="F230" s="71"/>
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
@@ -11162,7 +11144,7 @@
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
-      <c r="F231" s="94"/>
+      <c r="F231" s="71"/>
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
@@ -11191,7 +11173,7 @@
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
-      <c r="F232" s="94"/>
+      <c r="F232" s="71"/>
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
@@ -11220,7 +11202,7 @@
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
-      <c r="F233" s="94"/>
+      <c r="F233" s="71"/>
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
@@ -11249,7 +11231,7 @@
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
-      <c r="F234" s="94"/>
+      <c r="F234" s="71"/>
       <c r="G234" s="4"/>
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
@@ -11278,7 +11260,7 @@
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
-      <c r="F235" s="94"/>
+      <c r="F235" s="71"/>
       <c r="G235" s="4"/>
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
@@ -11307,7 +11289,7 @@
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
-      <c r="F236" s="94"/>
+      <c r="F236" s="71"/>
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
@@ -11336,7 +11318,7 @@
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
-      <c r="F237" s="94"/>
+      <c r="F237" s="71"/>
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
       <c r="I237" s="4"/>
@@ -11365,7 +11347,7 @@
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
-      <c r="F238" s="94"/>
+      <c r="F238" s="71"/>
       <c r="G238" s="4"/>
       <c r="H238" s="4"/>
       <c r="I238" s="4"/>
@@ -11394,7 +11376,7 @@
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
-      <c r="F239" s="94"/>
+      <c r="F239" s="71"/>
       <c r="G239" s="4"/>
       <c r="H239" s="4"/>
       <c r="I239" s="4"/>
@@ -12320,13 +12302,13 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="A1:Q1"/>
     <mergeCell ref="J31:L31"/>
     <mergeCell ref="J32:L32"/>
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="J34:L34"/>
     <mergeCell ref="J35:L35"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="J6 G11:G12 G14:G24 G26:G27 G29:G33 G35 G37:G38 G5:G6 G8:G9 H7">
     <cfRule type="containsText" dxfId="90" priority="97" operator="containsText" text="PASS">
@@ -12816,20 +12798,20 @@
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="50"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="105"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -12846,18 +12828,18 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="108"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -12874,20 +12856,20 @@
     <row r="3" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="49"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="99"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -12904,30 +12886,30 @@
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="56" t="s">
+      <c r="D4" s="105"/>
+      <c r="E4" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="56" t="s">
+      <c r="F4" s="105"/>
+      <c r="G4" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="112"/>
-      <c r="I4" s="56" t="s">
+      <c r="H4" s="114"/>
+      <c r="I4" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="56" t="s">
+      <c r="J4" s="105"/>
+      <c r="K4" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="56" t="s">
+      <c r="L4" s="105"/>
+      <c r="M4" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="N4" s="50"/>
+      <c r="N4" s="105"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -12944,18 +12926,18 @@
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="58"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="113"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -12972,18 +12954,18 @@
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="47"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="108"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -13002,18 +12984,18 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="49"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="99"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -13032,22 +13014,22 @@
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="110" t="s">
+      <c r="D8" s="99"/>
+      <c r="E8" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="49"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="99"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -13066,20 +13048,20 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="110" t="s">
+      <c r="C9" s="100"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="49"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="99"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -13098,20 +13080,20 @@
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="110" t="s">
+      <c r="C10" s="100"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="49"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="99"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -13130,20 +13112,20 @@
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="110" t="s">
+      <c r="C11" s="100"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="49"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="99"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -13162,20 +13144,20 @@
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="110" t="s">
+      <c r="C12" s="100"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="49"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="99"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -13194,20 +13176,20 @@
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="110" t="s">
+      <c r="C13" s="100"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="49"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="99"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -13226,20 +13208,20 @@
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="110" t="s">
+      <c r="C14" s="100"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="49"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="99"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -13258,20 +13240,20 @@
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="110" t="s">
+      <c r="C15" s="100"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="49"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="99"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -13290,20 +13272,20 @@
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="110" t="s">
+      <c r="C16" s="100"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="49"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="99"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -13322,20 +13304,20 @@
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="110" t="s">
+      <c r="C17" s="100"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="49"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="99"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -13351,23 +13333,23 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
-      <c r="B18" s="111" t="s">
+      <c r="B18" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="110" t="s">
+      <c r="C18" s="100"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="49"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="99"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -13383,23 +13365,23 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="110" t="s">
+      <c r="C19" s="100"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="J19" s="49"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="49"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="99"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -13415,23 +13397,23 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="110" t="s">
+      <c r="C20" s="100"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="J20" s="49"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="49"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="99"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -13447,23 +13429,23 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="110" t="s">
+      <c r="C21" s="100"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="J21" s="49"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="49"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="99"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -13479,23 +13461,23 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="110" t="s">
+      <c r="C22" s="100"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="J22" s="49"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="49"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="99"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -13511,23 +13493,23 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="110" t="s">
+      <c r="C23" s="100"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="J23" s="49"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="49"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="99"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -13543,23 +13525,23 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
-      <c r="B24" s="111" t="s">
+      <c r="B24" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="110" t="s">
+      <c r="C24" s="100"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="J24" s="49"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="49"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="99"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -13575,23 +13557,23 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="110" t="s">
+      <c r="C25" s="100"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="J25" s="49"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="49"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="99"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -13607,23 +13589,23 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
-      <c r="B26" s="111" t="s">
+      <c r="B26" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="110" t="s">
+      <c r="C26" s="100"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="J26" s="49"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="49"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="99"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -13639,23 +13621,23 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
-      <c r="B27" s="111" t="s">
+      <c r="B27" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="110" t="s">
+      <c r="C27" s="100"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="L27" s="49"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="49"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="99"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -13671,23 +13653,23 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="B28" s="111" t="s">
+      <c r="B28" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="110" t="s">
+      <c r="C28" s="100"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="N28" s="49"/>
+      <c r="N28" s="99"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -13703,23 +13685,23 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="111" t="s">
+      <c r="B29" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="110" t="s">
+      <c r="C29" s="100"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="N29" s="49"/>
+      <c r="N29" s="99"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -13735,23 +13717,23 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="111" t="s">
+      <c r="B30" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="110" t="s">
+      <c r="C30" s="100"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="N30" s="49"/>
+      <c r="N30" s="99"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -13767,23 +13749,23 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="111" t="s">
+      <c r="B31" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="110" t="s">
+      <c r="C31" s="100"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="N31" s="49"/>
+      <c r="N31" s="99"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -13799,23 +13781,23 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="111" t="s">
+      <c r="B32" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="110" t="s">
+      <c r="C32" s="100"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="N32" s="49"/>
+      <c r="N32" s="99"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -13831,23 +13813,23 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="111" t="s">
+      <c r="B33" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="110" t="s">
+      <c r="C33" s="100"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="N33" s="49"/>
+      <c r="N33" s="99"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -13863,23 +13845,23 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="110" t="s">
+      <c r="C34" s="100"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="N34" s="49"/>
+      <c r="N34" s="99"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -13895,23 +13877,23 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="110" t="s">
+      <c r="C35" s="100"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="N35" s="49"/>
+      <c r="N35" s="99"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -13927,23 +13909,23 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="111" t="s">
+      <c r="B36" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="110" t="s">
+      <c r="C36" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="49"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="99"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -13959,23 +13941,23 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="111" t="s">
+      <c r="B37" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="110" t="s">
+      <c r="C37" s="100"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="N37" s="49"/>
+      <c r="N37" s="99"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -13991,23 +13973,23 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="111" t="s">
+      <c r="B38" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="110" t="s">
+      <c r="C38" s="100"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="N38" s="49"/>
+      <c r="N38" s="99"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -19900,124 +19882,70 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="200">
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C1:N2"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="E4:F6"/>
+    <mergeCell ref="G4:H6"/>
+    <mergeCell ref="I4:J6"/>
+    <mergeCell ref="K4:L6"/>
+    <mergeCell ref="M4:N6"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
@@ -20034,72 +19962,126 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="C1:N2"/>
-    <mergeCell ref="C3:N3"/>
-    <mergeCell ref="E4:F6"/>
-    <mergeCell ref="G4:H6"/>
-    <mergeCell ref="I4:J6"/>
-    <mergeCell ref="K4:L6"/>
-    <mergeCell ref="M4:N6"/>
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/QA_Doc.xlsx
+++ b/Documentation/QA_Doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tareas\Especialidad\jdd\AutoTesterAndroid\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4820511-E1E7-4F09-AE2B-0B806CD94824}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4545681A-A8FC-46F5-854D-B343D6AA0D94}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="429" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="117">
   <si>
     <t>Traceability Matrix</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Device detected</t>
   </si>
 </sst>
 </file>
@@ -1162,6 +1165,18 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1180,18 +1195,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1199,10 +1202,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1235,6 +1234,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3884,8 +3887,8 @@
   </sheetPr>
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I17" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3906,25 +3909,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
@@ -4069,10 +4072,10 @@
         <v>30</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="F5" s="54" t="s">
         <v>98</v>
@@ -4986,11 +4989,11 @@
       <c r="G30" s="66"/>
       <c r="H30" s="18"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="94" t="s">
+      <c r="J30" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="K30" s="95"/>
-      <c r="L30" s="96"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="90"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -5017,11 +5020,11 @@
       <c r="G31" s="69"/>
       <c r="H31" s="10"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="88" t="s">
+      <c r="J31" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="K31" s="89"/>
-      <c r="L31" s="90"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="94"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -5062,11 +5065,11 @@
       </c>
       <c r="H32" s="40"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="88" t="s">
+      <c r="J32" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="K32" s="89"/>
-      <c r="L32" s="90"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="94"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -5093,11 +5096,11 @@
       <c r="G33" s="66"/>
       <c r="H33" s="18"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="88" t="s">
+      <c r="J33" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="K33" s="89"/>
-      <c r="L33" s="90"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="94"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -5123,11 +5126,11 @@
       <c r="F34" s="54"/>
       <c r="H34" s="10"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="88" t="s">
+      <c r="J34" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="K34" s="89"/>
-      <c r="L34" s="90"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="94"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -5168,11 +5171,11 @@
       </c>
       <c r="H35" s="40"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="91" t="s">
+      <c r="J35" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="K35" s="92"/>
-      <c r="L35" s="93"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="97"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
@@ -12302,13 +12305,13 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J35:L35"/>
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="J31:L31"/>
     <mergeCell ref="J32:L32"/>
     <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="J35:L35"/>
   </mergeCells>
   <conditionalFormatting sqref="J6 G11:G12 G14:G24 G26:G27 G29:G33 G35 G37:G38 G5:G6 G8:G9 H7">
     <cfRule type="containsText" dxfId="90" priority="97" operator="containsText" text="PASS">
@@ -12798,20 +12801,20 @@
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="105"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="103"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -12828,18 +12831,18 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="108"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="106"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -12856,19 +12859,19 @@
     <row r="3" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
       <c r="N3" s="99"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -12886,30 +12889,30 @@
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="111" t="s">
+      <c r="D4" s="103"/>
+      <c r="E4" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="105"/>
-      <c r="G4" s="111" t="s">
+      <c r="F4" s="103"/>
+      <c r="G4" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="114"/>
-      <c r="I4" s="111" t="s">
+      <c r="H4" s="112"/>
+      <c r="I4" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="105"/>
-      <c r="K4" s="111" t="s">
+      <c r="J4" s="103"/>
+      <c r="K4" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="111" t="s">
+      <c r="L4" s="103"/>
+      <c r="M4" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="N4" s="105"/>
+      <c r="N4" s="103"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -12926,18 +12929,18 @@
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="113"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="111"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -12954,18 +12957,18 @@
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="108"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="106"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -13658,8 +13661,8 @@
       </c>
       <c r="C28" s="100"/>
       <c r="D28" s="99"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="102"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="118"/>
       <c r="G28" s="100"/>
       <c r="H28" s="99"/>
       <c r="I28" s="100"/>
@@ -19882,19 +19885,167 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="200">
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="M9:N9"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="M19:N19"/>
@@ -19919,169 +20070,21 @@
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
